--- a/Paketliste.xlsx
+++ b/Paketliste.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,3476 +479,2823 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Rest</t>
+          <t>Eil</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C3" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
-        <v>202204031453</v>
+        <v>202204031431</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>951368816</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>202204031351</v>
+        <v>202204031431</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>503826827</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="C9" t="n">
-        <v>202204031351</v>
+        <v>202204031418</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>503826827</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C10" t="n">
-        <v>202204031442</v>
+        <v>202204031431</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>759678881</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>202204031351</v>
+        <v>202204031418</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>503826827</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="C12" t="n">
-        <v>202204031442</v>
+        <v>202204031441</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>759678881</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>202204031442</v>
+        <v>202204031418</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>759678881</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
-        <v>202204031442</v>
+        <v>202204031431</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>759678881</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C15" t="n">
-        <v>202204031351</v>
+        <v>202204031441</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>503826827</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>202204031351</v>
+        <v>202204031441</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>503826827</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
-        <v>202204031351</v>
+        <v>202204031418</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>503826827</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C18" t="n">
-        <v>202204031442</v>
+        <v>202204031431</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>759678881</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>202204031442</v>
+        <v>202204031431</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>759678881</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
-        <v>202204031939</v>
+        <v>202204031441</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>480765417</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
-        <v>202204031939</v>
+        <v>202204031418</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>480765417</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>202204031939</v>
+        <v>202204031431</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>480765417</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="C23" t="n">
-        <v>202204031939</v>
+        <v>202204031441</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>480765417</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>202204031939</v>
+        <v>202204031441</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>480765417</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>202204031939</v>
+        <v>202204031418</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>480765417</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C27" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C28" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C29" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C30" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" t="n">
-        <v>202204031640</v>
+        <v>202204031439</v>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>382035038</v>
+        <v>215713848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C32" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D33" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C34" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D34" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C37" t="n">
-        <v>202204031453</v>
+        <v>202204031429</v>
       </c>
       <c r="D37" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>122268613</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Eil</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C38" t="n">
-        <v>202204031431</v>
+        <v>202204031300</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>475868152</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C39" t="n">
-        <v>202204031431</v>
+        <v>202204031300</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>475868152</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C40" t="n">
-        <v>202204031431</v>
+        <v>202204031435</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>475868152</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>202204031431</v>
+        <v>202204031441</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>475868152</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C42" t="n">
-        <v>202204031431</v>
+        <v>202204031441</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>475868152</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>202204031431</v>
+        <v>202204031435</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>475868152</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C44" t="n">
-        <v>202204031431</v>
+        <v>202204031435</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>515927555</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C45" t="n">
-        <v>202204031418</v>
+        <v>202204031435</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>913739849</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>202204031431</v>
+        <v>202204031300</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>515927555</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
-        <v>202204031418</v>
+        <v>202204031441</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>913739849</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="C48" t="n">
-        <v>202204031441</v>
+        <v>202204031300</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>299767476</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>202204031418</v>
+        <v>202204031435</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>913739849</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>202204031431</v>
+        <v>202204031441</v>
       </c>
       <c r="D50" t="n">
         <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>515927555</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C51" t="n">
-        <v>202204031441</v>
+        <v>202204031435</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>299767476</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>202204031441</v>
+        <v>202204031300</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>299767476</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>202204031418</v>
+        <v>202204031441</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>913739849</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="C54" t="n">
-        <v>202204031431</v>
+        <v>202204031441</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>515927555</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
-        <v>202204031431</v>
+        <v>202204031300</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>515927555</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>202204031441</v>
+        <v>202204031434</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>299767476</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C57" t="n">
-        <v>202204031418</v>
+        <v>202204031605</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>913739849</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C58" t="n">
-        <v>202204031431</v>
+        <v>202204031605</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>515927555</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C59" t="n">
-        <v>202204031441</v>
+        <v>202204031434</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>299767476</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>202204031441</v>
+        <v>202204031605</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>299767476</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="C61" t="n">
-        <v>202204031418</v>
+        <v>202204031434</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>913739849</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" t="n">
-        <v>202204031439</v>
+        <v>202204031605</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>215713848</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="n">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>202204031439</v>
+        <v>202204031434</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>215713848</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>202204031439</v>
+        <v>202204031605</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>215713848</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>202204031439</v>
+        <v>202204031434</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>215713848</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C66" t="n">
-        <v>202204031439</v>
+        <v>202204031434</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>215713848</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C67" t="n">
-        <v>202204031439</v>
+        <v>202204031605</v>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>215713848</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C68" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C69" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C70" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C71" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C72" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>202204031429</v>
+        <v>202204031019</v>
       </c>
       <c r="D73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>621641348</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
+      <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="n">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>202204031300</v>
+        <v>202204031433</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>707817792</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C75" t="n">
-        <v>202204031300</v>
+        <v>202204031452</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>707817792</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C76" t="n">
-        <v>202204031435</v>
+        <v>202204031433</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>714239103</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>202204031441</v>
+        <v>202204031433</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>334129184</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>202204031441</v>
+        <v>202204031433</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>334129184</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="n">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C79" t="n">
-        <v>202204031435</v>
+        <v>202204031452</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>714239103</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C80" t="n">
-        <v>202204031435</v>
+        <v>202204031452</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>714239103</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C81" t="n">
-        <v>202204031435</v>
+        <v>202204031452</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>714239103</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>202204031300</v>
+        <v>202204031452</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>707817792</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C83" t="n">
-        <v>202204031441</v>
+        <v>202204031452</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>334129184</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C84" t="n">
-        <v>202204031300</v>
+        <v>202204031433</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>707817792</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C85" t="n">
-        <v>202204031435</v>
+        <v>202204031433</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>714239103</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" t="n">
-        <v>202204031441</v>
+        <v>202204031252</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>334129184</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C87" t="n">
-        <v>202204031435</v>
+        <v>202204031252</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>714239103</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C88" t="n">
-        <v>202204031300</v>
+        <v>202204031252</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>707817792</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C89" t="n">
-        <v>202204031441</v>
+        <v>202204031252</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>334129184</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C90" t="n">
-        <v>202204031441</v>
+        <v>202204031252</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>334129184</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C91" t="n">
-        <v>202204031300</v>
+        <v>202204031252</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>707817792</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C92" t="n">
-        <v>202204031434</v>
+        <v>202204031424</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>260806324</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C93" t="n">
-        <v>202204031605</v>
+        <v>202204031437</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>998436127</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="n">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C94" t="n">
-        <v>202204031605</v>
+        <v>202204031424</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>998436127</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C95" t="n">
-        <v>202204031434</v>
+        <v>202204031437</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>260806324</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C96" t="n">
-        <v>202204031605</v>
+        <v>202204031437</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>998436127</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C97" t="n">
-        <v>202204031434</v>
+        <v>202204031437</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>260806324</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>202204031605</v>
+        <v>202204031424</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>998436127</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C99" t="n">
-        <v>202204031434</v>
+        <v>202204031424</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>260806324</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>202204031605</v>
+        <v>202204031424</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>998436127</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C101" t="n">
-        <v>202204031434</v>
+        <v>202204031424</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>260806324</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>202204031434</v>
+        <v>202204031437</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>260806324</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C103" t="n">
-        <v>202204031605</v>
+        <v>202204031437</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>998436127</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C104" t="n">
-        <v>202204031019</v>
+        <v>202204031309</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>711104665</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C105" t="n">
-        <v>202204031019</v>
+        <v>202204031309</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>711104665</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C106" t="n">
-        <v>202204031019</v>
+        <v>202204031434</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>711104665</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C107" t="n">
-        <v>202204031019</v>
+        <v>202204031431</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>711104665</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C108" t="n">
-        <v>202204031019</v>
+        <v>202204031431</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>711104665</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="C109" t="n">
-        <v>202204031019</v>
+        <v>202204031309</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>711104665</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="n">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C110" t="n">
-        <v>202204031433</v>
+        <v>202204031434</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>432478322</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C111" t="n">
-        <v>202204031452</v>
+        <v>202204031431</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>563358514</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="n">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C112" t="n">
-        <v>202204031433</v>
+        <v>202204031431</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>432478322</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C113" t="n">
-        <v>202204031433</v>
+        <v>202204031431</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>432478322</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C114" t="n">
-        <v>202204031433</v>
+        <v>202204031434</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>432478322</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C115" t="n">
-        <v>202204031452</v>
+        <v>202204031434</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>563358514</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C116" t="n">
-        <v>202204031452</v>
+        <v>202204031431</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>563358514</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="C117" t="n">
-        <v>202204031452</v>
+        <v>202204031309</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>563358514</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C118" t="n">
-        <v>202204031452</v>
+        <v>202204031309</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>563358514</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C119" t="n">
-        <v>202204031452</v>
+        <v>202204031434</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>563358514</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>202204031433</v>
+        <v>202204031434</v>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>432478322</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C121" t="n">
-        <v>202204031433</v>
+        <v>202204031309</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>432478322</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C122" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="n">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C123" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C124" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C125" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="n">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C126" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="n">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C127" t="n">
-        <v>202204031252</v>
+        <v>202204031453</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>805564714</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C128" t="n">
-        <v>202204031424</v>
+        <v>202204031351</v>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>596356174</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="n">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C129" t="n">
-        <v>202204031437</v>
+        <v>202204031351</v>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>365267956</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C130" t="n">
-        <v>202204031424</v>
+        <v>202204031442</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>596356174</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C131" t="n">
-        <v>202204031437</v>
+        <v>202204031351</v>
       </c>
       <c r="D131" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>365267956</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="n">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C132" t="n">
-        <v>202204031437</v>
+        <v>202204031442</v>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>365267956</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C133" t="n">
-        <v>202204031437</v>
+        <v>202204031442</v>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>365267956</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C134" t="n">
-        <v>202204031424</v>
+        <v>202204031442</v>
       </c>
       <c r="D134" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>596356174</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
       <c r="B135" s="1" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C135" t="n">
-        <v>202204031424</v>
+        <v>202204031351</v>
       </c>
       <c r="D135" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>596356174</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C136" t="n">
-        <v>202204031424</v>
+        <v>202204031351</v>
       </c>
       <c r="D136" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>596356174</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C137" t="n">
-        <v>202204031424</v>
+        <v>202204031351</v>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>596356174</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="n">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="C138" t="n">
-        <v>202204031437</v>
+        <v>202204031442</v>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>365267956</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C139" t="n">
-        <v>202204031437</v>
+        <v>202204031442</v>
       </c>
       <c r="D139" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>365267956</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>202204031309</v>
+        <v>202204031939</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>942036837</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="n">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C141" t="n">
-        <v>202204031309</v>
+        <v>202204031939</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>942036837</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="n">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C142" t="n">
-        <v>202204031434</v>
+        <v>202204031939</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>969035751</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
       <c r="B143" s="1" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C143" t="n">
-        <v>202204031431</v>
+        <v>202204031939</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>391772033</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
       <c r="B144" s="1" t="n">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C144" t="n">
-        <v>202204031431</v>
+        <v>202204031939</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>391772033</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
       <c r="B145" s="1" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C145" t="n">
-        <v>202204031309</v>
+        <v>202204031939</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>942036837</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
       <c r="B146" s="1" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C146" t="n">
-        <v>202204031434</v>
+        <v>202204031640</v>
       </c>
       <c r="D146" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>969035751</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
       <c r="B147" s="1" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C147" t="n">
-        <v>202204031431</v>
+        <v>202204031640</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>391772033</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
       <c r="B148" s="1" t="n">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C148" t="n">
-        <v>202204031431</v>
+        <v>202204031640</v>
       </c>
       <c r="D148" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>391772033</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
-        <v>202204031431</v>
+        <v>202204031640</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>391772033</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
       <c r="B150" s="1" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C150" t="n">
-        <v>202204031434</v>
+        <v>202204031640</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>969035751</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
       <c r="B151" s="1" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C151" t="n">
-        <v>202204031434</v>
+        <v>202204031640</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>969035751</v>
+        <v>382035038</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
       <c r="B152" s="1" t="n">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C152" t="n">
-        <v>202204031431</v>
+        <v>202204031453</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>391772033</v>
+        <v>122268613</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
       <c r="B153" s="1" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C153" t="n">
-        <v>202204031309</v>
+        <v>202204031453</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>942036837</v>
+        <v>122268613</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
       <c r="B154" s="1" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C154" t="n">
-        <v>202204031309</v>
+        <v>202204031453</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>942036837</v>
+        <v>122268613</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
       <c r="B155" s="1" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C155" t="n">
-        <v>202204031434</v>
+        <v>202204031453</v>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>969035751</v>
+        <v>122268613</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
       <c r="B156" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C156" t="n">
-        <v>202204031434</v>
+        <v>202204031453</v>
       </c>
       <c r="D156" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>969035751</v>
+        <v>122268613</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
       <c r="B157" s="1" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C157" t="n">
-        <v>202204031309</v>
+        <v>202204031453</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>942036837</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n"/>
-      <c r="B158" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="C158" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="C159" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="C160" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C161" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="C162" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="C163" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>951368816</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="C164" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D164" t="n">
-        <v>23</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="C165" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D165" t="n">
-        <v>23</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="C166" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D166" t="n">
-        <v>23</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="C167" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D167" t="n">
-        <v>23</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="C168" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D168" t="n">
-        <v>23</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="C169" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D169" t="n">
-        <v>23</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n"/>
-      <c r="B170" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="C170" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D170" t="n">
-        <v>23</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n"/>
-      <c r="B171" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="C171" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D171" t="n">
-        <v>23</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="C172" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D172" t="n">
-        <v>23</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="C173" t="n">
-        <v>202204031351</v>
-      </c>
-      <c r="D173" t="n">
-        <v>23</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>503826827</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="C174" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D174" t="n">
-        <v>23</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="C175" t="n">
-        <v>202204031442</v>
-      </c>
-      <c r="D175" t="n">
-        <v>23</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>759678881</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D176" t="n">
-        <v>24</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n"/>
-      <c r="B177" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="C177" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D177" t="n">
-        <v>24</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="C178" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D178" t="n">
-        <v>24</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C179" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D179" t="n">
-        <v>24</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n"/>
-      <c r="B180" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="C180" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D180" t="n">
-        <v>24</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="C181" t="n">
-        <v>202204031939</v>
-      </c>
-      <c r="D181" t="n">
-        <v>24</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>480765417</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="C182" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D182" t="n">
-        <v>45</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n"/>
-      <c r="B183" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="C183" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D183" t="n">
-        <v>45</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C184" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D184" t="n">
-        <v>45</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C185" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D185" t="n">
-        <v>45</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n"/>
-      <c r="B186" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="C186" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D186" t="n">
-        <v>45</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="C187" t="n">
-        <v>202204031640</v>
-      </c>
-      <c r="D187" t="n">
-        <v>45</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>382035038</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="C188" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D188" t="n">
-        <v>49</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
         <v>122268613</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n"/>
-      <c r="B189" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="C189" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D189" t="n">
-        <v>49</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>122268613</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n"/>
-      <c r="B190" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="C190" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D190" t="n">
-        <v>49</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>122268613</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n"/>
-      <c r="B191" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="C191" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D191" t="n">
-        <v>49</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>122268613</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n"/>
-      <c r="B192" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="C192" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D192" t="n">
-        <v>49</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>122268613</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n"/>
-      <c r="B193" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="C193" t="n">
-        <v>202204031453</v>
-      </c>
-      <c r="D193" t="n">
-        <v>49</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>122268613</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A37"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="A74:A193"/>
+    <mergeCell ref="A38:A157"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
